--- a/biology/Botanique/Hedlundia_hybrida/Hedlundia_hybrida.xlsx
+++ b/biology/Botanique/Hedlundia_hybrida/Hedlundia_hybrida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hedlundia hybrida (syn. Sorbus hybrida), l'Alisier de Scandinavie[1], Sorbier de Scandinavie[1], Sorbier hybride[1], Sorbier de Laponie[2], Alisier de Laponie[2], Sorbier finlandais[2] ou Alisier de Finlande[réf. nécessaire], est une espèce de plantes à fleurs de la famille des Rosacées. C'est un arbre originaire de Scandinavie. On l'utilise comme arbre ornemental.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hedlundia hybrida (syn. Sorbus hybrida), l'Alisier de Scandinavie, Sorbier de Scandinavie, Sorbier hybride, Sorbier de Laponie, Alisier de Laponie, Sorbier finlandais ou Alisier de Finlande[réf. nécessaire], est une espèce de plantes à fleurs de la famille des Rosacées. C'est un arbre originaire de Scandinavie. On l'utilise comme arbre ornemental.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Plants of the World online (POWO)                (18 février 2024)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Plants of the World online (POWO)                (18 février 2024) :
 (homotypiques)
 Aria hybrida (L.) Beck in Fl. Nieder-Österreich 2: 711 (1892)
 Ariosorbus hybrida (L.) Mezhenskyj in Netraditsĭni plodoy kulʼturi: 28 (2012)
